--- a/medicine/Enfance/Carina_Rozenfeld/Carina_Rozenfeld.xlsx
+++ b/medicine/Enfance/Carina_Rozenfeld/Carina_Rozenfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carina Rozenfeld, née le 13 février 1972 à Paris, est une auteure française de romans jeunesse dans le domaine de l’imaginaire, de la science-fiction et du fantastique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 13 février 1972 à Paris, Carina Rozenfeld rédige ses premiers écrits à l'âge de 10 ans[1]. Elle fait d'abord des études dans le domaine de la géographie et de l'urbanisme, pour ensuite se diriger vers le monde des livres en travaillant pour Hachette Tourisme[2]. Elle entame ensuite une carrière de journaliste et se spécialise dans la presse destinée aux jeunes lecteurs[1]. Enfin, en 2004, à l'âge de 32 ans, elle publie son premier roman Lucille et les dragons sourds aux éditions Kryos, le livre sera traduit en Allemand.
-Carina Rozenfeld se fait connaître en 2008 à la suite de la publication de Le Mystère Olphite aux éditions L'Atalante et de Le Livre des âmes aux éditions Intervista dirigées par Luc Besson[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 13 février 1972 à Paris, Carina Rozenfeld rédige ses premiers écrits à l'âge de 10 ans. Elle fait d'abord des études dans le domaine de la géographie et de l'urbanisme, pour ensuite se diriger vers le monde des livres en travaillant pour Hachette Tourisme. Elle entame ensuite une carrière de journaliste et se spécialise dans la presse destinée aux jeunes lecteurs. Enfin, en 2004, à l'âge de 32 ans, elle publie son premier roman Lucille et les dragons sourds aux éditions Kryos, le livre sera traduit en Allemand.
+Carina Rozenfeld se fait connaître en 2008 à la suite de la publication de Le Mystère Olphite aux éditions L'Atalante et de Le Livre des âmes aux éditions Intervista dirigées par Luc Besson. 
 Depuis 2009, chez Syros, elle propose plusieurs romans jeunesses indépendants, remportant un vif succès.
 À partir de 2012, elle signe quelques ouvrages chez Robert Laffont, dans la collection R, lui permettant ainsi d'écrire la saga Le Feu secret avec CJ Daugherty, autrice de la saga Night School.
 En 2016, elle collabore avec les éditions Scrinéo pour la saga Zalim, puis en 2019 pour Le Démêleur de rêves.
@@ -549,54 +563,433 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série La Quête des Livres Monde
-Le Livre des Âmes, Intervista,, coll. « Cinémascope », 2008Prix Imaginales des collégiens 2009, lauréat du Prix des Incorruptibles 2009-2010 pour la sélection 5e-4e [3], prix littéraire d'Issoire 2010[4]
-Le Livre des Lieux, Intervista,, coll. « Cinémascope », 2010
-Le Livre du temps, L'Atalante, coll. « Le Maedre », 2012
-Série Doregon
-Les Portes de Doregon, L'Atalante, coll. « Le Maedre », 2010
+          <t>Série La Quête des Livres Monde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Livre des Âmes, Intervista coll. « Cinémascope », 2008Prix Imaginales des collégiens 2009, lauréat du Prix des Incorruptibles 2009-2010 pour la sélection 5e-4e , prix littéraire d'Issoire 2010
+Le Livre des Lieux, Intervista coll. « Cinémascope », 2010
+Le Livre du temps, L'Atalante, coll. « Le Maedre », 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Doregon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Portes de Doregon, L'Atalante, coll. « Le Maedre », 2010
 La Guerre de l'ombre, L'Atalante, coll. « Le Maedre », 2011
-Les Cracheurs de lumière, L'Atalante, coll. « Le Maedre », 2012
-Série Phænix
-Les Cendres de l'oubli, Robert Laffont, coll. « R », 2012
-Le Brasier des souvenirs, Robert Laffont, coll. « R », 2013
-Série La Symphonie des abysses
-Le pronom personne de genre neutre iel y est utilisé pour désigner les personnages non-binaires[5].
+Les Cracheurs de lumière, L'Atalante, coll. « Le Maedre », 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Phænix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Cendres de l'oubli, Robert Laffont, coll. « R », 2012
+Le Brasier des souvenirs, Robert Laffont, coll. « R », 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série La Symphonie des abysses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le pronom personne de genre neutre iel y est utilisé pour désigner les personnages non-binaires.
 La Symphonie des abysses, Robert Laffont, coll. « R », 2014
-La Symphonie des abysses - Livre 2, Robert Laffont, coll. « R », 2014
-Série La Quête des pierres de Luet
-La Pierre d'Etlal, L'Atalante, coll. « Jeunesse », 2014
+La Symphonie des abysses - Livre 2, Robert Laffont, coll. « R », 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série La Quête des pierres de Luet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Pierre d'Etlal, L'Atalante, coll. « Jeunesse », 2014
 La Pierre de Majilpuûr, L'Atalante, coll. « Jeunesse », 2015
-La Pierre de Goth, L'Atalante, coll. « Jeunesse », 2015
-Série Le Feu secret
-Cette série est coécrite avec C. J. Daugherty (en)
+La Pierre de Goth, L'Atalante, coll. « Jeunesse », 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Le Feu secret</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec C. J. Daugherty (en)
 Le Feu secret, Robert Laffont, coll. « R », 2015
-La Cité secrète, Robert Laffont, coll. « R », 2016
-Série Zalim
-Zalim - 1, Scrinéo, 2016
-Zalim - 2, Scrinéo, 2017
-Série L'Héritier des Draconis
-Draconia, Gulf Stream, 2017
+La Cité secrète, Robert Laffont, coll. « R », 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Zalim</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Zalim - 1, Scrinéo, 2016
+Zalim - 2, Scrinéo, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série L'Héritier des Draconis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Draconia, Gulf Stream, 2017
 La Sculptrice de dragons, Gulf Stream, 2017
 La Baie aux arcs-en-ciel, Gulf Stream, 2018
 Les Secrets de Brûle-Dragon, Gulf Stream, 2018
-La Dernière Bataille, Gulf Stream, 2019
-Série Monstr'Hôtel
-Les Chasseurs de trésor, Gulf Stream, 2019
+La Dernière Bataille, Gulf Stream, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Monstr'Hôtel</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les Chasseurs de trésor, Gulf Stream, 2019
 Le Secret du lac, Gulf Stream, 2020
 La Pierre d'Onophior, Gulf Stream, 2020
-La Créature de la nuit, Gulf Stream, 2020
-Série Papy, Maxwell et moi
-Protocole 007, Gulf stream, 2021
+La Créature de la nuit, Gulf Stream, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Papy, Maxwell et moi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Protocole 007, Gulf stream, 2021
 Code : les dents de la mer, Gulf Stream, 2022
-Opération 19 999 lieues sous les mers, Gulf Stream, 2022
-Série Les Anges mécaniques
-L'Appel, Gulf stream, 2022
-L'Élue, Gulf stream, 2023
-Romans indépendants
-Lucille et les Dragons sourds, Kryos, 2004Prix Le Lutin d'Or 2004, prix Mélusine 2006
-Le Mystère Olphite, L'Atalante, coll. « Le Maedre », 2008Sélectionné au grand prix de l'Imaginaire 2009[6] ainsi que pour le prix Lire Élire 2009[7]
-Les Clefs de Babel, Syros, coll. « Soon », 2009Prix d'Onet à lire 2010[8], prix du jeune Poisson à Pithiviers 2010, lauréat du Prix des Incorruptibles 2010-2011 pour les 5e-4e [9]
+Opération 19 999 lieues sous les mers, Gulf Stream, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Les Anges mécaniques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L'Appel, Gulf stream, 2022
+L'Élue, Gulf stream, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lucille et les Dragons sourds, Kryos, 2004Prix Le Lutin d'Or 2004, prix Mélusine 2006
+Le Mystère Olphite, L'Atalante, coll. « Le Maedre », 2008Sélectionné au grand prix de l'Imaginaire 2009 ainsi que pour le prix Lire Élire 2009
+Les Clefs de Babel, Syros, coll. « Soon », 2009Prix d'Onet à lire 2010, prix du jeune Poisson à Pithiviers 2010, lauréat du Prix des Incorruptibles 2010-2011 pour les 5e-4e 
 À la poursuite des humutes, Mini Syros, coll. « Soon », 2010
 Moi, je la trouve belle, Mini Syros,  Coll. Soon, 2012
 Les Sentinelles du futur, Syros, coll. « Soon », 2013
@@ -605,70 +998,108 @@
 Je peux te voir, Gulf stream, 2018
 Le Démêleur de rêves, Scrinéo, 2019
 La Chaussette de Proust, Gulf stream, 2020
-TerreS, Scrinéo, 2019
-Divers
-Le Guide des 100 plus belles plages du monde, Grands Voyageurs, 2004Collaboration
+TerreS, Scrinéo, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Guide des 100 plus belles plages du monde, Grands Voyageurs, 2004Collaboration
 Le Guide du voyage de noces, Grands Voyageurs, 2005Collaboration
 Graines de voyageurs - Normandie, Graine2, 2008</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Carina_Rozenfeld</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo[10], proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo, proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Carina_Rozenfeld</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carina_Rozenfeld</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Son œuvre est saluée par de nombreux prix littéraires :
 Prix Gwarlan jeunesse CE1/CE2 2022 pour La chaussette de Proust
@@ -678,14 +1109,14 @@
 Prix Les Imaginaires 2021 pour EVE, Entité vigilance, enquête
 Prix ados de la ville de Senlis 2021 pour Le démêleur de Rêves
 Prix Bloody Fleury 2020 pour Je peux te voir
-Prix Imaginales des collégiens 2020 pour Je peux te voir[11]
+Prix Imaginales des collégiens 2020 pour Je peux te voir
 Prix Livrentête Junior 2020 pour Je peux te voir
 Prix ARDEP Île de France 2020 pour Je peux te voir
 Prix Les mordus du Polar 2019 Pour EVE, Entité vigilance, enquête
 Prix Ados de la ville de Rennes 2019 pour EVE, Entité vigilance, enquête
 Prix du roman contemporain 2019 pour EVE, Entité vigilance, enquête
 Prix ARDEP IDF 2019 pour EVE, Entité vigilance, enquête
-Prix du livre « Sciences pour tous » des collégiens 2018 pour E.V.E. [12]
+Prix du livre « Sciences pour tous » des collégiens 2018 pour E.V.E. 
 Prix du jeune Poisson 2028 pour L'héritier des Draconis
 Prix de la Fontaine D'Ouche 2028 pour L'héritier des Draconis
 Prix Passez la 5e 2018 pour L'héritier des Draconis
@@ -705,13 +1136,13 @@
 Prix Page à Page, 2011 pour Les Clefs de Babel
 Prix Adolire 2011 pour Les Clefs de Babel
 Prix Dis-moi ton livre CE2/CM1 2011pour À la poursuite des Humutes
-Prix des Incorruptibles 2010-2011 pour la sélection 5e-4e [9] pour Les Clefs de Babel
+Prix des Incorruptibles 2010-2011 pour la sélection 5e-4e  pour Les Clefs de Babel
 Prix du jeune poisson 2010 pour Les Clefs de Babel
 Prix D'Onet à Lire 2010 pour Les Clefs de Babel
 Prix littéraire d'ISsoire 2010 pour La quête des Livres-Monde
-Prix des Incorruptibles 2009-2010 pour la sélection 5e-4e [9] pour La Quête des Livre-Monde - tome 1 - Le Livre des Âmes.
-Prix ARDEP 2009-2010 pour la sélection 5e-4e [9] pour La Quête des Livre-Monde - tome 1 - Le Livre des Âmes.
-Prix Imaginales des collégiens en 2009[13] pour La Quête des Livres Monde - tome 1 - Le Livre des Âmes.
+Prix des Incorruptibles 2009-2010 pour la sélection 5e-4e  pour La Quête des Livre-Monde - tome 1 - Le Livre des Âmes.
+Prix ARDEP 2009-2010 pour la sélection 5e-4e  pour La Quête des Livre-Monde - tome 1 - Le Livre des Âmes.
+Prix Imaginales des collégiens en 2009 pour La Quête des Livres Monde - tome 1 - Le Livre des Âmes.
 Prix Mélusine 2006 pour Lucille et les dragons sourds
 Prix du Lutin d'or 2004 pour Lucille et les dragons sourds</t>
         </is>
